--- a/medicine/Mort/Cimetière_militaire_de_Bellevue-Virton/Cimetière_militaire_de_Bellevue-Virton.xlsx
+++ b/medicine/Mort/Cimetière_militaire_de_Bellevue-Virton/Cimetière_militaire_de_Bellevue-Virton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_de_Bellevue-Virton</t>
+          <t>Cimetière_militaire_de_Bellevue-Virton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire de Bellevue (commune de Virton), dans la province de Luxembourg (Belgique), est le lieu où sont inhumés près de 4000 soldats morts durant la Première Guerre mondiale.  Le cimetière se trouve sur la route N 875, à deux kilomètres au nord du centre-ville de Virton, près du hameau de Bellevue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_de_Bellevue-Virton</t>
+          <t>Cimetière_militaire_de_Bellevue-Virton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En août 1914, il y eut de sanglantes batailles entre les troupes françaises et allemandes dans la région de Virton. Durant l’occupation (en février 1916) , les autorités allemandes demandèrent au conseil municipal de Virton d’établir un certain nombre de cimetières militaires. Il y en eut trois, soit Bellevue, le  154e -Allemand, La Chamberlaine et (peut-être...) un quatrième: La Houblonnière.
 Vers 1920, à la demande des familles, le gouvernement français organisa le rapatriement des corps des soldats français morts en Belgique. Beaucoup sont inhumés dans leur village natal.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_de_Bellevue-Virton</t>
+          <t>Cimetière_militaire_de_Bellevue-Virton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Virton Bellevue
  Portail de la Première Guerre mondiale   Portail de l’histoire militaire de la Belgique   Portail de la province de Luxembourg   Portail sur la mort                  </t>
